--- a/spc_data.xlsx
+++ b/spc_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\msys64\home\KTAKAHAS\spc_sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C943B855-43EE-46AD-A5C6-2897C1C30565}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27EE1253-1F53-4B28-83F2-43A4F388DB0D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="882" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36900" yWindow="1365" windowWidth="15840" windowHeight="12480" tabRatio="882" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -875,9 +875,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -910,6 +907,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="132">
@@ -1640,117 +1640,119 @@
   </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.77734375" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.21875" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="4.109375" style="14"/>
+    <col min="1" max="1" width="12.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.21875" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="4.109375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="14" customFormat="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="14" customFormat="1">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <v>-1</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="14">
         <v>0</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="14" customFormat="1">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>-1</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="14">
         <v>0</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="14" customFormat="1">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <v>-1</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="14">
         <v>0</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="14" customFormat="1">
-      <c r="A5" s="15" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <v>-1</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <v>0</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="14" customFormat="1">
-      <c r="A6" s="15" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <v>-1</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <v>0</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="14">
         <v>1</v>
       </c>
     </row>
@@ -1788,11 +1790,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="37.5" customHeight="1">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="A1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:13" s="9" customFormat="1" ht="28.8">
       <c r="A2" s="6" t="s">
@@ -1958,11 +1960,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="37.5" customHeight="1">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="A1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:16" s="9" customFormat="1" ht="43.2">
       <c r="A2" s="6" t="s">
@@ -2152,11 +2154,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="37.5" customHeight="1">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="A1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:16" s="9" customFormat="1" ht="43.2">
       <c r="A2" s="6" t="s">
@@ -2328,635 +2330,638 @@
   <sheetPr codeName="Sheet23"/>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="16.77734375" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="14"/>
+    <col min="1" max="1" width="7.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="18" customFormat="1">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:6" s="17" customFormat="1">
+      <c r="A1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="14" customFormat="1">
-      <c r="A2" s="15">
+    <row r="2" spans="1:6">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="19">
-        <v>0.72368421052631204</v>
-      </c>
-      <c r="C2" s="19">
-        <v>0.21052631578943179</v>
-      </c>
-      <c r="D2" s="19">
-        <v>-2.6315789473735071E-2</v>
-      </c>
-      <c r="E2" s="19">
-        <v>-0.13157894736845097</v>
-      </c>
-      <c r="F2" s="19">
-        <v>0.63999999999998636</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="14" customFormat="1">
-      <c r="A3" s="15">
+      <c r="B2" s="18">
+        <v>0.72349313223361877</v>
+      </c>
+      <c r="C2" s="18">
+        <v>0.21060459338863047</v>
+      </c>
+      <c r="D2" s="18">
+        <v>-2.6144768909555673E-2</v>
+      </c>
+      <c r="E2" s="18">
+        <v>-0.13112691068712939</v>
+      </c>
+      <c r="F2" s="18">
+        <v>0.63981660562055698</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="14">
         <v>2</v>
       </c>
-      <c r="B3" s="19">
-        <v>0.42105263157894773</v>
-      </c>
-      <c r="C3" s="19">
-        <v>7.8947368420980824E-2</v>
-      </c>
-      <c r="D3" s="19">
-        <v>2.6315789473660277E-2</v>
-      </c>
-      <c r="E3" s="19">
-        <v>2.6315789473660277E-2</v>
-      </c>
-      <c r="F3" s="19">
-        <v>0.12000000000000455</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="14" customFormat="1">
-      <c r="A4" s="15">
+      <c r="B3" s="18">
+        <v>0.42151374679084841</v>
+      </c>
+      <c r="C3" s="18">
+        <v>7.9363531029686352E-2</v>
+      </c>
+      <c r="D3" s="18">
+        <v>2.6647439955627746E-2</v>
+      </c>
+      <c r="E3" s="18">
+        <v>2.6645298524218628E-2</v>
+      </c>
+      <c r="F3" s="18">
+        <v>0.11959558207687247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="14">
         <v>3</v>
       </c>
-      <c r="B4" s="19">
-        <v>0.52631578947368229</v>
-      </c>
-      <c r="C4" s="19">
-        <v>0.44736842105267344</v>
-      </c>
-      <c r="D4" s="19">
-        <v>-1.3157894736904933E-2</v>
-      </c>
-      <c r="E4" s="19">
-        <v>-0.43947368421053051</v>
-      </c>
-      <c r="F4" s="19">
-        <v>-0.21999999999999886</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="14" customFormat="1">
-      <c r="A5" s="15">
+      <c r="B4" s="18">
+        <v>0.5259021679336735</v>
+      </c>
+      <c r="C4" s="18">
+        <v>0.44707207297910506</v>
+      </c>
+      <c r="D4" s="18">
+        <v>-1.2777624723809066E-2</v>
+      </c>
+      <c r="E4" s="18">
+        <v>-0.43969572161327203</v>
+      </c>
+      <c r="F4" s="18">
+        <v>-0.22004372591516491</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="14">
         <v>4</v>
       </c>
-      <c r="B5" s="19">
-        <v>0.11842105263157876</v>
-      </c>
-      <c r="C5" s="19">
-        <v>-0.32368421052629065</v>
-      </c>
-      <c r="D5" s="19">
-        <v>5.2631578946871786E-3</v>
-      </c>
-      <c r="E5" s="19">
-        <v>-0.15789473684211125</v>
-      </c>
-      <c r="F5" s="19">
-        <v>0.46799999999998931</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="22" customFormat="1">
-      <c r="A6" s="20">
+      <c r="B5" s="18">
+        <v>0.11884709368658287</v>
+      </c>
+      <c r="C5" s="18">
+        <v>-0.32414779384297748</v>
+      </c>
+      <c r="D5" s="18">
+        <v>4.7729455310653564E-3</v>
+      </c>
+      <c r="E5" s="18">
+        <v>-0.15752383241925016</v>
+      </c>
+      <c r="F5" s="18">
+        <v>0.46843792418113445</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="21" customFormat="1">
+      <c r="A6" s="19">
         <v>5</v>
       </c>
-      <c r="B6" s="21">
-        <v>0.49999999999999867</v>
-      </c>
-      <c r="C6" s="21">
-        <v>0.71578947368418777</v>
-      </c>
-      <c r="D6" s="21">
-        <v>0.39999999999996527</v>
-      </c>
-      <c r="E6" s="21">
-        <v>-0.26315789473682716</v>
-      </c>
-      <c r="F6" s="21">
-        <v>1.999999999998181E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="22" customFormat="1">
-      <c r="A7" s="20">
+      <c r="B6" s="20">
+        <v>0.49955779174464521</v>
+      </c>
+      <c r="C6" s="20">
+        <v>0.71587318415164214</v>
+      </c>
+      <c r="D6" s="20">
+        <v>0.40035736003478767</v>
+      </c>
+      <c r="E6" s="20">
+        <v>-0.26324033430091359</v>
+      </c>
+      <c r="F6" s="20">
+        <v>2.0327978251139908E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="21" customFormat="1">
+      <c r="A7" s="19">
         <v>6</v>
       </c>
-      <c r="B7" s="21">
-        <v>0.40789473684210359</v>
-      </c>
-      <c r="C7" s="21">
-        <v>0.34736842105264476</v>
-      </c>
-      <c r="D7" s="21">
-        <v>-1.8421052631592112E-2</v>
-      </c>
-      <c r="E7" s="21">
-        <v>-0.14473684210528109</v>
-      </c>
-      <c r="F7" s="21">
-        <v>0.382000000000005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="22" customFormat="1">
-      <c r="A8" s="20">
+      <c r="B7" s="20">
+        <v>0.40745203193504204</v>
+      </c>
+      <c r="C7" s="20">
+        <v>0.34743779098832284</v>
+      </c>
+      <c r="D7" s="20">
+        <v>-1.8384353953097825E-2</v>
+      </c>
+      <c r="E7" s="20">
+        <v>-0.14496456680668779</v>
+      </c>
+      <c r="F7" s="20">
+        <v>0.38237250213022794</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="21" customFormat="1">
+      <c r="A8" s="19">
         <v>7</v>
       </c>
-      <c r="B8" s="21">
-        <v>6.578947368420679E-2</v>
-      </c>
-      <c r="C8" s="21">
-        <v>0.499999999999994</v>
-      </c>
-      <c r="D8" s="21">
-        <v>2.8947368421041262E-2</v>
-      </c>
-      <c r="E8" s="21">
-        <v>6.842105263153167E-2</v>
-      </c>
-      <c r="F8" s="21">
-        <v>6.3999999999992951E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="22" customFormat="1">
-      <c r="A9" s="20">
+      <c r="B8" s="20">
+        <v>6.5625017060723878E-2</v>
+      </c>
+      <c r="C8" s="20">
+        <v>0.49981465270345804</v>
+      </c>
+      <c r="D8" s="20">
+        <v>2.9355164879277664E-2</v>
+      </c>
+      <c r="E8" s="20">
+        <v>6.8536120438127665E-2</v>
+      </c>
+      <c r="F8" s="20">
+        <v>6.3590069907683858E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="21" customFormat="1">
+      <c r="A9" s="19">
         <v>8</v>
       </c>
-      <c r="B9" s="21">
-        <v>0.43421052631578722</v>
-      </c>
-      <c r="C9" s="21">
-        <v>0.53421052631572241</v>
-      </c>
-      <c r="D9" s="21">
-        <v>0.22894736842102389</v>
-      </c>
-      <c r="E9" s="21">
-        <v>0.13684210526313814</v>
-      </c>
-      <c r="F9" s="21">
-        <v>-0.10800000000000409</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="14" customFormat="1">
-      <c r="A10" s="20">
+      <c r="B9" s="20">
+        <v>0.433999651547048</v>
+      </c>
+      <c r="C9" s="20">
+        <v>0.53467462188056847</v>
+      </c>
+      <c r="D9" s="20">
+        <v>0.22941485603244691</v>
+      </c>
+      <c r="E9" s="20">
+        <v>0.13727595691976666</v>
+      </c>
+      <c r="F9" s="20">
+        <v>-0.10800075970241708</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="19">
         <v>9</v>
       </c>
-      <c r="B10" s="19">
-        <v>0.28947368421052483</v>
-      </c>
-      <c r="C10" s="19">
-        <v>-1.9473684210526554</v>
-      </c>
-      <c r="D10" s="19">
-        <v>0.80263157894731152</v>
-      </c>
-      <c r="E10" s="19">
-        <v>-2.1052631578973097E-2</v>
-      </c>
-      <c r="F10" s="19">
-        <v>0.25399999999999068</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="14" customFormat="1">
-      <c r="A11" s="20">
+      <c r="B10" s="18">
+        <v>0.28929479544822662</v>
+      </c>
+      <c r="C10" s="18">
+        <v>-1.9469076054897607</v>
+      </c>
+      <c r="D10" s="18">
+        <v>0.8030159248429074</v>
+      </c>
+      <c r="E10" s="18">
+        <v>-2.0923453407916851E-2</v>
+      </c>
+      <c r="F10" s="18">
+        <v>0.2540353462973845</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="19">
         <v>10</v>
       </c>
-      <c r="B11" s="19">
-        <v>0.1052631578947346</v>
-      </c>
-      <c r="C11" s="19">
-        <v>-1.3421052631578707</v>
-      </c>
-      <c r="D11" s="19">
-        <v>0.18421052631577153</v>
-      </c>
-      <c r="E11" s="19">
-        <v>-0.91842105263162621</v>
-      </c>
-      <c r="F11" s="19">
-        <v>2.7999999999991587E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="14" customFormat="1">
-      <c r="A12" s="20">
+      <c r="B11" s="18">
+        <v>0.10486011016077658</v>
+      </c>
+      <c r="C11" s="18">
+        <v>-1.3421458902688481</v>
+      </c>
+      <c r="D11" s="18">
+        <v>0.18391243281676597</v>
+      </c>
+      <c r="E11" s="18">
+        <v>-0.91823927787160808</v>
+      </c>
+      <c r="F11" s="18">
+        <v>2.7917336440277982E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="19">
         <v>11</v>
       </c>
-      <c r="B12" s="19">
-        <v>0.40789473684210359</v>
-      </c>
-      <c r="C12" s="19">
-        <v>0.66052631578941146</v>
-      </c>
-      <c r="D12" s="19">
-        <v>0</v>
-      </c>
-      <c r="E12" s="19">
-        <v>3.1578947368422247E-2</v>
-      </c>
-      <c r="F12" s="19">
-        <v>0.86199999999999477</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="14" customFormat="1">
-      <c r="A13" s="20">
+      <c r="B12" s="18">
+        <v>0.40752103768230191</v>
+      </c>
+      <c r="C12" s="18">
+        <v>0.66053203843858033</v>
+      </c>
+      <c r="D12" s="18">
+        <v>2.3527131924205679E-4</v>
+      </c>
+      <c r="E12" s="18">
+        <v>3.1779762034433889E-2</v>
+      </c>
+      <c r="F12" s="18">
+        <v>0.86247420746333636</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="19">
         <v>12</v>
       </c>
-      <c r="B13" s="19">
-        <v>0.19736842105262969</v>
-      </c>
-      <c r="C13" s="19">
-        <v>-1.5789473684211124</v>
-      </c>
-      <c r="D13" s="19">
-        <v>0.13947368421051914</v>
-      </c>
-      <c r="E13" s="19">
-        <v>-0.20789473684212562</v>
-      </c>
-      <c r="F13" s="19">
-        <v>0.22999999999998977</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="14" customFormat="1">
-      <c r="A14" s="20">
+      <c r="B13" s="18">
+        <v>0.19716797165090985</v>
+      </c>
+      <c r="C13" s="18">
+        <v>-1.5790061649599867</v>
+      </c>
+      <c r="D13" s="18">
+        <v>0.13911785826086615</v>
+      </c>
+      <c r="E13" s="18">
+        <v>-0.20780016190199099</v>
+      </c>
+      <c r="F13" s="18">
+        <v>0.22996978954384947</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="19">
         <v>13</v>
       </c>
-      <c r="B14" s="19">
-        <v>0.44736842105263136</v>
-      </c>
-      <c r="C14" s="19">
-        <v>0.16842105263163501</v>
-      </c>
-      <c r="D14" s="19">
-        <v>2.1052631578898303E-2</v>
-      </c>
-      <c r="E14" s="19">
-        <v>0.15789473684211125</v>
-      </c>
-      <c r="F14" s="19">
-        <v>3.1999999999982265E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="14" customFormat="1">
-      <c r="A15" s="20">
+      <c r="B14" s="18">
+        <v>0.44770257546644987</v>
+      </c>
+      <c r="C14" s="18">
+        <v>0.16818001129623317</v>
+      </c>
+      <c r="D14" s="18">
+        <v>2.0595548426573212E-2</v>
+      </c>
+      <c r="E14" s="18">
+        <v>0.15757004418417586</v>
+      </c>
+      <c r="F14" s="18">
+        <v>3.2271334564679309E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="19">
         <v>14</v>
       </c>
-      <c r="B15" s="19">
-        <v>7.8947368421050948E-2</v>
-      </c>
-      <c r="C15" s="19">
-        <v>-2.6315789473660277E-2</v>
-      </c>
-      <c r="D15" s="19">
-        <v>2.6315789473660301E-2</v>
-      </c>
-      <c r="E15" s="19">
-        <v>0.48421052631578287</v>
-      </c>
-      <c r="F15" s="19">
-        <v>7.9999999999813554E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="14" customFormat="1">
-      <c r="A16" s="20">
+      <c r="B15" s="18">
+        <v>7.8477162458849309E-2</v>
+      </c>
+      <c r="C15" s="18">
+        <v>-2.5922885925231513E-2</v>
+      </c>
+      <c r="D15" s="18">
+        <v>2.6425183607800912E-2</v>
+      </c>
+      <c r="E15" s="18">
+        <v>0.48389960707837537</v>
+      </c>
+      <c r="F15" s="18">
+        <v>7.7673337663477764E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="19">
         <v>15</v>
       </c>
-      <c r="B16" s="19">
-        <v>0.11842105263157876</v>
-      </c>
-      <c r="C16" s="19">
-        <v>-0.68684210526322131</v>
-      </c>
-      <c r="D16" s="19">
-        <v>1.3157894736830138E-2</v>
-      </c>
-      <c r="E16" s="19">
-        <v>6.842105263153167E-2</v>
-      </c>
-      <c r="F16" s="19">
-        <v>1.5999999999991132E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="14" customFormat="1">
-      <c r="A17" s="20">
+      <c r="B16" s="18">
+        <v>0.11876988936319853</v>
+      </c>
+      <c r="C16" s="18">
+        <v>-0.68718104461808349</v>
+      </c>
+      <c r="D16" s="18">
+        <v>1.333552453328353E-2</v>
+      </c>
+      <c r="E16" s="18">
+        <v>6.8907005702098484E-2</v>
+      </c>
+      <c r="F16" s="18">
+        <v>1.5839587477383215E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="19">
         <v>16</v>
       </c>
-      <c r="B17" s="19">
-        <v>0.4605263157894709</v>
-      </c>
-      <c r="C17" s="19">
-        <v>-7.1052631578912659E-2</v>
-      </c>
-      <c r="D17" s="19">
-        <v>0</v>
-      </c>
-      <c r="E17" s="19">
-        <v>3.1578947368422247E-2</v>
-      </c>
-      <c r="F17" s="19">
-        <v>0.19999999999998863</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="14" customFormat="1">
-      <c r="A18" s="20">
+      <c r="B17" s="18">
+        <v>0.4600372412340718</v>
+      </c>
+      <c r="C17" s="18">
+        <v>-7.1172227450780792E-2</v>
+      </c>
+      <c r="D17" s="18">
+        <v>1.1946667639658747E-4</v>
+      </c>
+      <c r="E17" s="18">
+        <v>3.1866693250040982E-2</v>
+      </c>
+      <c r="F17" s="18">
+        <v>0.20034470528101173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="19">
         <v>17</v>
       </c>
-      <c r="B18" s="19">
-        <v>0.21052631578947387</v>
-      </c>
-      <c r="C18" s="19">
-        <v>-0.84999999999994491</v>
-      </c>
-      <c r="D18" s="19">
-        <v>0.76315789473682116</v>
-      </c>
-      <c r="E18" s="19">
-        <v>0.75263157894737198</v>
-      </c>
-      <c r="F18" s="19">
-        <v>-0.15399999999999636</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="14" customFormat="1">
-      <c r="A19" s="20">
+      <c r="B18" s="18">
+        <v>0.21062379632111117</v>
+      </c>
+      <c r="C18" s="18">
+        <v>-0.84958940864562094</v>
+      </c>
+      <c r="D18" s="18">
+        <v>0.76265972543075644</v>
+      </c>
+      <c r="E18" s="18">
+        <v>0.75299424447077556</v>
+      </c>
+      <c r="F18" s="18">
+        <v>-0.15367954081262672</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="19">
         <v>18</v>
       </c>
-      <c r="B19" s="19">
-        <v>6.578947368420679E-2</v>
-      </c>
-      <c r="C19" s="19">
-        <v>0.77105263157896409</v>
-      </c>
-      <c r="D19" s="19">
-        <v>5.5263157894701535E-2</v>
-      </c>
-      <c r="E19" s="19">
-        <v>0.7315789473683989</v>
-      </c>
-      <c r="F19" s="19">
-        <v>-8.0000000000097771E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="14" customFormat="1">
-      <c r="A20" s="20">
+      <c r="B19" s="18">
+        <v>6.5489975040622164E-2</v>
+      </c>
+      <c r="C19" s="18">
+        <v>0.77126042887825053</v>
+      </c>
+      <c r="D19" s="18">
+        <v>5.484966109878478E-2</v>
+      </c>
+      <c r="E19" s="18">
+        <v>0.73178778809036094</v>
+      </c>
+      <c r="F19" s="18">
+        <v>-8.0947144642083968E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="19">
         <v>19</v>
       </c>
-      <c r="B20" s="19">
-        <v>0.48684210526315452</v>
-      </c>
-      <c r="C20" s="19">
-        <v>-0.35263157894740671</v>
-      </c>
-      <c r="D20" s="19">
-        <v>4.7368421052633371E-2</v>
-      </c>
-      <c r="E20" s="19">
-        <v>8.15789473684366E-2</v>
-      </c>
-      <c r="F20" s="19">
-        <v>0.15999999999999659</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="14" customFormat="1">
-      <c r="A21" s="20">
+      <c r="B20" s="18">
+        <v>0.48685613839499259</v>
+      </c>
+      <c r="C20" s="18">
+        <v>-0.35250387960579854</v>
+      </c>
+      <c r="D20" s="18">
+        <v>4.7581701688902682E-2</v>
+      </c>
+      <c r="E20" s="18">
+        <v>8.1285377241105058E-2</v>
+      </c>
+      <c r="F20" s="18">
+        <v>0.16031782977047981</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="19">
         <v>20</v>
       </c>
-      <c r="B21" s="19">
-        <v>0.48684210526315452</v>
-      </c>
-      <c r="C21" s="19">
-        <v>-0.22631578947371772</v>
-      </c>
-      <c r="D21" s="19">
-        <v>0.21052631578943179</v>
-      </c>
-      <c r="E21" s="19">
-        <v>0.13157894736837616</v>
-      </c>
-      <c r="F21" s="19">
-        <v>-9.6000000000003638E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="14" customFormat="1">
-      <c r="A22" s="20">
+      <c r="B21" s="18">
+        <v>0.48731285416425696</v>
+      </c>
+      <c r="C21" s="18">
+        <v>-0.22606067028098265</v>
+      </c>
+      <c r="D21" s="18">
+        <v>0.21012914725050977</v>
+      </c>
+      <c r="E21" s="18">
+        <v>0.13122778003917726</v>
+      </c>
+      <c r="F21" s="18">
+        <v>-9.5814946327555425E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="19">
         <v>21</v>
       </c>
-      <c r="B22" s="19">
-        <v>0.26315789473684115</v>
-      </c>
-      <c r="C22" s="19">
-        <v>0.19210526315783968</v>
-      </c>
-      <c r="D22" s="19">
-        <v>7.8947368420681646E-3</v>
-      </c>
-      <c r="E22" s="19">
-        <v>0.94999999999997364</v>
-      </c>
-      <c r="F22" s="19">
-        <v>-2.0000000000010232E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="14" customFormat="1">
-      <c r="A23" s="20">
+      <c r="B22" s="18">
+        <v>0.26298248678877922</v>
+      </c>
+      <c r="C22" s="18">
+        <v>0.19164777078258191</v>
+      </c>
+      <c r="D22" s="18">
+        <v>7.9333129617599127E-3</v>
+      </c>
+      <c r="E22" s="18">
+        <v>0.95013740012715608</v>
+      </c>
+      <c r="F22" s="18">
+        <v>-1.9610640278183322E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="19">
         <v>22</v>
       </c>
-      <c r="B23" s="19">
-        <v>0.48684210526315452</v>
-      </c>
-      <c r="C23" s="19">
-        <v>0.53421052631572241</v>
-      </c>
-      <c r="D23" s="19">
-        <v>2.6315789473660277E-2</v>
-      </c>
-      <c r="E23" s="19">
-        <v>0.99999999999998801</v>
-      </c>
-      <c r="F23" s="19">
-        <v>-0.34000000000000341</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="14" customFormat="1">
-      <c r="A24" s="20">
+      <c r="B23" s="18">
+        <v>0.4865876618440354</v>
+      </c>
+      <c r="C23" s="18">
+        <v>0.53465337090760079</v>
+      </c>
+      <c r="D23" s="18">
+        <v>2.5836669212064973E-2</v>
+      </c>
+      <c r="E23" s="18">
+        <v>1.0000081049348197</v>
+      </c>
+      <c r="F23" s="18">
+        <v>-0.33969590125654103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="19">
         <v>23</v>
       </c>
-      <c r="B24" s="19">
-        <v>-1.3157894736844162E-2</v>
-      </c>
-      <c r="C24" s="19">
-        <v>-0.3315789473683588</v>
-      </c>
-      <c r="D24" s="19">
-        <v>6.5789473684150696E-2</v>
-      </c>
-      <c r="E24" s="19">
-        <v>0.52894736842103529</v>
-      </c>
-      <c r="F24" s="19">
-        <v>0.35999999999998522</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="14" customFormat="1">
-      <c r="A25" s="20">
+      <c r="B24" s="18">
+        <v>-1.3083385434564034E-2</v>
+      </c>
+      <c r="C24" s="18">
+        <v>-0.33137824630644347</v>
+      </c>
+      <c r="D24" s="18">
+        <v>6.6229563953477594E-2</v>
+      </c>
+      <c r="E24" s="18">
+        <v>0.52862833117950114</v>
+      </c>
+      <c r="F24" s="18">
+        <v>0.36025207601285175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="19">
         <v>24</v>
       </c>
-      <c r="B25" s="19">
-        <v>-3.9473684210527812E-2</v>
-      </c>
-      <c r="C25" s="19">
-        <v>9.2105263157960554E-2</v>
-      </c>
-      <c r="D25" s="19">
-        <v>1.0526315789449152E-2</v>
-      </c>
-      <c r="E25" s="19">
-        <v>0.5657894736842195</v>
-      </c>
-      <c r="F25" s="19">
-        <v>5.1999999999992497E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="14" customFormat="1">
-      <c r="A26" s="20">
+      <c r="B25" s="18">
+        <v>-3.9555161544425864E-2</v>
+      </c>
+      <c r="C25" s="18">
+        <v>9.1987256096635522E-2</v>
+      </c>
+      <c r="D25" s="18">
+        <v>1.0592913354547855E-2</v>
+      </c>
+      <c r="E25" s="18">
+        <v>0.56588355255098743</v>
+      </c>
+      <c r="F25" s="18">
+        <v>5.1841301399990436E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="19">
         <v>25</v>
       </c>
-      <c r="B26" s="19">
-        <v>0.31578947368420801</v>
-      </c>
-      <c r="C26" s="19">
-        <v>1.7105263157894137</v>
-      </c>
-      <c r="D26" s="19">
-        <v>0.36842105263154307</v>
-      </c>
-      <c r="E26" s="19">
-        <v>0.26578947368420813</v>
-      </c>
-      <c r="F26" s="19">
-        <v>0.1799999999999784</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="14" customFormat="1">
-      <c r="A27" s="20">
+      <c r="B26" s="18">
+        <v>0.31589620255045964</v>
+      </c>
+      <c r="C26" s="18">
+        <v>1.7107924109881691</v>
+      </c>
+      <c r="D26" s="18">
+        <v>0.36803154348258071</v>
+      </c>
+      <c r="E26" s="18">
+        <v>0.26595177156846672</v>
+      </c>
+      <c r="F26" s="18">
+        <v>0.18035445493027807</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="19">
         <v>26</v>
       </c>
-      <c r="B27" s="19">
-        <v>0.53947368421052655</v>
-      </c>
-      <c r="C27" s="19">
-        <v>-0.87631578947375477</v>
-      </c>
-      <c r="D27" s="19">
-        <v>4.9999999999939565E-2</v>
-      </c>
-      <c r="E27" s="19">
-        <v>7.8947368421055625E-2</v>
-      </c>
-      <c r="F27" s="19">
-        <v>0.28999999999999204</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="14" customFormat="1">
-      <c r="A28" s="20">
+      <c r="B27" s="18">
+        <v>0.53954188426072502</v>
+      </c>
+      <c r="C27" s="18">
+        <v>-0.87666393110094953</v>
+      </c>
+      <c r="D27" s="18">
+        <v>4.9668440460082133E-2</v>
+      </c>
+      <c r="E27" s="18">
+        <v>7.9000453368034268E-2</v>
+      </c>
+      <c r="F27" s="18">
+        <v>0.28997635460823862</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="19">
         <v>27</v>
       </c>
-      <c r="B28" s="19">
-        <v>0.249999999999997</v>
-      </c>
-      <c r="C28" s="19">
-        <v>-4.4736842105252389E-2</v>
-      </c>
-      <c r="D28" s="19">
-        <v>2.6315789473660277E-2</v>
-      </c>
-      <c r="E28" s="19">
-        <v>0.13157894736837616</v>
-      </c>
-      <c r="F28" s="19">
-        <v>-0.21999999999999886</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="14" customFormat="1">
-      <c r="A29" s="20">
+      <c r="B28" s="18">
+        <v>0.24982866296248715</v>
+      </c>
+      <c r="C28" s="18">
+        <v>-4.4381797770162275E-2</v>
+      </c>
+      <c r="D28" s="18">
+        <v>2.6363219950782748E-2</v>
+      </c>
+      <c r="E28" s="18">
+        <v>0.13148997627856118</v>
+      </c>
+      <c r="F28" s="18">
+        <v>-0.22045799712014269</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="19">
         <v>28</v>
       </c>
-      <c r="B29" s="19">
-        <v>0.23684210526315752</v>
-      </c>
-      <c r="C29" s="19">
-        <v>-0.26315789473690193</v>
-      </c>
-      <c r="D29" s="19">
-        <v>2.6315789473660277E-2</v>
-      </c>
-      <c r="E29" s="19">
-        <v>0.65789473684210531</v>
-      </c>
-      <c r="F29" s="19">
-        <v>9.9999999999994316E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="14" customFormat="1">
-      <c r="A30" s="20">
+      <c r="B29" s="18">
+        <v>0.23642042444548114</v>
+      </c>
+      <c r="C29" s="18">
+        <v>-0.26360251477037711</v>
+      </c>
+      <c r="D29" s="18">
+        <v>2.6473911568925042E-2</v>
+      </c>
+      <c r="E29" s="18">
+        <v>0.65799715750739662</v>
+      </c>
+      <c r="F29" s="18">
+        <v>9.9692130282706085E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="19">
         <v>29</v>
       </c>
-      <c r="B30" s="19">
-        <v>0.52631578947368229</v>
-      </c>
-      <c r="C30" s="19">
-        <v>-4.2105263157946195E-2</v>
-      </c>
-      <c r="D30" s="19">
-        <v>-4.7368421052633371E-2</v>
-      </c>
-      <c r="E30" s="19">
-        <v>-0.10526315789471589</v>
-      </c>
-      <c r="F30" s="19">
-        <v>0.62600000000000477</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="14" customFormat="1">
-      <c r="A31" s="15">
+      <c r="B30" s="18">
+        <v>0.52653476698201507</v>
+      </c>
+      <c r="C30" s="18">
+        <v>-4.233411319374053E-2</v>
+      </c>
+      <c r="D30" s="18">
+        <v>-4.7801967203106484E-2</v>
+      </c>
+      <c r="E30" s="18">
+        <v>-0.10545260607181658</v>
+      </c>
+      <c r="F30" s="18">
+        <v>0.62560989141006795</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="14">
         <v>30</v>
       </c>
-      <c r="B31" s="19">
-        <v>0.31578957368420801</v>
-      </c>
-      <c r="C31" s="19">
-        <v>0.158421052631635</v>
-      </c>
-      <c r="D31" s="19">
-        <v>3.63157894736603E-2</v>
-      </c>
-      <c r="E31" s="19">
-        <v>4.1578947368436599E-2</v>
-      </c>
-      <c r="F31" s="19">
-        <v>0.10299999999999999</v>
+      <c r="B31" s="18">
+        <v>0.31570918309773349</v>
+      </c>
+      <c r="C31" s="18">
+        <v>0.15810556322012498</v>
+      </c>
+      <c r="D31" s="18">
+        <v>3.6560468543835295E-2</v>
+      </c>
+      <c r="E31" s="18">
+        <v>4.1181846464276389E-2</v>
+      </c>
+      <c r="F31" s="18">
+        <v>0.10283316357555079</v>
       </c>
     </row>
   </sheetData>
@@ -2967,21 +2972,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003B5831A217606148B3774069AEB9EEA4" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="706d567f56036ee5cebc1919037beca5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c4127a0c-343d-4254-84e2-7ae746809d04" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1301514614ebdbae5fc8e55cab68489d" ns2:_="">
     <xsd:import namespace="c4127a0c-343d-4254-84e2-7ae746809d04"/>
@@ -3121,10 +3111,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3EAA434-3B24-48DA-AAA9-D2D537ADEA57}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4FEA38BA-220B-4AFD-A7AF-B8278D18A450}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c4127a0c-343d-4254-84e2-7ae746809d04"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3146,19 +3161,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4FEA38BA-220B-4AFD-A7AF-B8278D18A450}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3EAA434-3B24-48DA-AAA9-D2D537ADEA57}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="c4127a0c-343d-4254-84e2-7ae746809d04"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/spc_data.xlsx
+++ b/spc_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\msys64\home\KTAKAHAS\spc_sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27EE1253-1F53-4B28-83F2-43A4F388DB0D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58DDF0E-8011-4767-88B1-615B3E5747D2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36900" yWindow="1365" windowWidth="15840" windowHeight="12480" tabRatio="882" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2331,7 +2331,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -2369,19 +2369,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="18">
-        <v>0.72349313223361877</v>
+        <v>0.68762272574951078</v>
       </c>
       <c r="C2" s="18">
-        <v>0.21060459338863047</v>
+        <v>0.25416097847694186</v>
       </c>
       <c r="D2" s="18">
-        <v>-2.6144768909555673E-2</v>
+        <v>1.2207363299595944E-2</v>
       </c>
       <c r="E2" s="18">
-        <v>-0.13112691068712939</v>
+        <v>-0.12532860918744221</v>
       </c>
       <c r="F2" s="18">
-        <v>0.63981660562055698</v>
+        <v>0.60702575392564861</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2389,19 +2389,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="18">
-        <v>0.42151374679084841</v>
+        <v>0.45298272010224266</v>
       </c>
       <c r="C3" s="18">
-        <v>7.9363531029686352E-2</v>
+        <v>3.5089093170249823E-2</v>
       </c>
       <c r="D3" s="18">
-        <v>2.6647439955627746E-2</v>
+        <v>4.1720105952550407E-2</v>
       </c>
       <c r="E3" s="18">
-        <v>2.6645298524218628E-2</v>
+        <v>3.7530914518047076E-2</v>
       </c>
       <c r="F3" s="18">
-        <v>0.11959558207687247</v>
+        <v>0.16081123202697839</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2409,19 +2409,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="18">
-        <v>0.5259021679336735</v>
+        <v>0.54555173908959298</v>
       </c>
       <c r="C4" s="18">
-        <v>0.44707207297910506</v>
+        <v>0.47407463161593055</v>
       </c>
       <c r="D4" s="18">
-        <v>-1.2777624723809066E-2</v>
+        <v>-3.9840721699035374E-2</v>
       </c>
       <c r="E4" s="18">
-        <v>-0.43969572161327203</v>
+        <v>-0.48234265863689146</v>
       </c>
       <c r="F4" s="18">
-        <v>-0.22004372591516491</v>
+        <v>-0.20580107745723414</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2429,19 +2429,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="18">
-        <v>0.11884709368658287</v>
+        <v>0.10447114054901388</v>
       </c>
       <c r="C5" s="18">
-        <v>-0.32414779384297748</v>
+        <v>-0.3153383431096044</v>
       </c>
       <c r="D5" s="18">
-        <v>4.7729455310653564E-3</v>
+        <v>4.1766379292795513E-3</v>
       </c>
       <c r="E5" s="18">
-        <v>-0.15752383241925016</v>
+        <v>-0.11189348784691849</v>
       </c>
       <c r="F5" s="18">
-        <v>0.46843792418113445</v>
+        <v>0.49336919504795579</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="21" customFormat="1">
@@ -2449,19 +2449,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="20">
-        <v>0.49955779174464521</v>
+        <v>0.49319307549373442</v>
       </c>
       <c r="C6" s="20">
-        <v>0.71587318415164214</v>
+        <v>0.67342798734921372</v>
       </c>
       <c r="D6" s="20">
-        <v>0.40035736003478767</v>
+        <v>0.4305225782303656</v>
       </c>
       <c r="E6" s="20">
-        <v>-0.26324033430091359</v>
+        <v>-0.22125184680653068</v>
       </c>
       <c r="F6" s="20">
-        <v>2.0327978251139908E-2</v>
+        <v>1.9616491724601566E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="21" customFormat="1">
@@ -2469,19 +2469,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="20">
-        <v>0.40745203193504204</v>
+        <v>0.41560335007092841</v>
       </c>
       <c r="C7" s="20">
-        <v>0.34743779098832284</v>
+        <v>0.36410778321234177</v>
       </c>
       <c r="D7" s="20">
-        <v>-1.8384353953097825E-2</v>
+        <v>-2.7876366342262343E-2</v>
       </c>
       <c r="E7" s="20">
-        <v>-0.14496456680668779</v>
+        <v>-0.13934578147091459</v>
       </c>
       <c r="F7" s="20">
-        <v>0.38237250213022794</v>
+        <v>0.3854620904046977</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="21" customFormat="1">
@@ -2489,19 +2489,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="20">
-        <v>6.5625017060723878E-2</v>
+        <v>1.6628272318659751E-2</v>
       </c>
       <c r="C8" s="20">
-        <v>0.49981465270345804</v>
+        <v>0.51751362397009038</v>
       </c>
       <c r="D8" s="20">
-        <v>2.9355164879277664E-2</v>
+        <v>3.5887407649173003E-2</v>
       </c>
       <c r="E8" s="20">
-        <v>6.8536120438127665E-2</v>
+        <v>6.8096983591824423E-2</v>
       </c>
       <c r="F8" s="20">
-        <v>6.3590069907683858E-2</v>
+        <v>3.9938797593265615E-2</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="21" customFormat="1">
@@ -2509,19 +2509,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="20">
-        <v>0.433999651547048</v>
+        <v>0.43238495768032392</v>
       </c>
       <c r="C9" s="20">
-        <v>0.53467462188056847</v>
+        <v>0.50110089219711529</v>
       </c>
       <c r="D9" s="20">
-        <v>0.22941485603244691</v>
+        <v>0.24119951259463626</v>
       </c>
       <c r="E9" s="20">
-        <v>0.13727595691976666</v>
+        <v>0.1638405871659539</v>
       </c>
       <c r="F9" s="20">
-        <v>-0.10800075970241708</v>
+        <v>-7.0804098635873031E-2</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2529,19 +2529,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="18">
-        <v>0.28929479544822662</v>
+        <v>0.3140091214238927</v>
       </c>
       <c r="C10" s="18">
-        <v>-1.9469076054897607</v>
+        <v>-1.9704758857536151</v>
       </c>
       <c r="D10" s="18">
-        <v>0.8030159248429074</v>
+        <v>0.8307097568918943</v>
       </c>
       <c r="E10" s="18">
-        <v>-2.0923453407916851E-2</v>
+        <v>-5.4909354428159196E-2</v>
       </c>
       <c r="F10" s="18">
-        <v>0.2540353462973845</v>
+        <v>0.24927472790763919</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2549,19 +2549,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="18">
-        <v>0.10486011016077658</v>
+        <v>9.8588730639386848E-2</v>
       </c>
       <c r="C11" s="18">
-        <v>-1.3421458902688481</v>
+        <v>-1.3892299495461113</v>
       </c>
       <c r="D11" s="18">
-        <v>0.18391243281676597</v>
+        <v>0.22548472978724485</v>
       </c>
       <c r="E11" s="18">
-        <v>-0.91823927787160808</v>
+        <v>-0.94701701428506557</v>
       </c>
       <c r="F11" s="18">
-        <v>2.7917336440277982E-2</v>
+        <v>-3.2664045847191521E-3</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2569,19 +2569,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="18">
-        <v>0.40752103768230191</v>
+        <v>0.45363460768275937</v>
       </c>
       <c r="C12" s="18">
-        <v>0.66053203843858033</v>
+        <v>0.63523662239604883</v>
       </c>
       <c r="D12" s="18">
-        <v>2.3527131924205679E-4</v>
+        <v>-1.5772429823312311E-3</v>
       </c>
       <c r="E12" s="18">
-        <v>3.1779762034433889E-2</v>
+        <v>6.4202293389190535E-2</v>
       </c>
       <c r="F12" s="18">
-        <v>0.86247420746333636</v>
+        <v>0.83249933193189851</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2589,19 +2589,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="18">
-        <v>0.19716797165090985</v>
+        <v>0.23028935209770085</v>
       </c>
       <c r="C13" s="18">
-        <v>-1.5790061649599867</v>
+        <v>-1.5395908942903176</v>
       </c>
       <c r="D13" s="18">
-        <v>0.13911785826086615</v>
+        <v>0.12063656948575725</v>
       </c>
       <c r="E13" s="18">
-        <v>-0.20780016190199099</v>
+        <v>-0.16442196630589051</v>
       </c>
       <c r="F13" s="18">
-        <v>0.22996978954384947</v>
+        <v>0.25392540442635597</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2609,19 +2609,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="18">
-        <v>0.44770257546644987</v>
+        <v>0.48636806512408859</v>
       </c>
       <c r="C14" s="18">
-        <v>0.16818001129623317</v>
+        <v>0.16526480787501502</v>
       </c>
       <c r="D14" s="18">
-        <v>2.0595548426573212E-2</v>
+        <v>3.9648781063261654E-2</v>
       </c>
       <c r="E14" s="18">
-        <v>0.15757004418417586</v>
+        <v>0.13434259842085428</v>
       </c>
       <c r="F14" s="18">
-        <v>3.2271334564679309E-2</v>
+        <v>5.8742772930507725E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2629,19 +2629,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="18">
-        <v>7.8477162458849309E-2</v>
+        <v>8.2856324092496492E-2</v>
       </c>
       <c r="C15" s="18">
-        <v>-2.5922885925231513E-2</v>
+        <v>-7.0260014875089608E-2</v>
       </c>
       <c r="D15" s="18">
-        <v>2.6425183607800912E-2</v>
+        <v>-2.0522631058699978E-2</v>
       </c>
       <c r="E15" s="18">
-        <v>0.48389960707837537</v>
+        <v>0.48105897407800075</v>
       </c>
       <c r="F15" s="18">
-        <v>7.7673337663477764E-3</v>
+        <v>5.807363503644844E-2</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2649,19 +2649,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="18">
-        <v>0.11876988936319853</v>
+        <v>0.13739634962694833</v>
       </c>
       <c r="C16" s="18">
-        <v>-0.68718104461808349</v>
+        <v>-0.68540173025188966</v>
       </c>
       <c r="D16" s="18">
-        <v>1.333552453328353E-2</v>
+        <v>5.2511320922714003E-2</v>
       </c>
       <c r="E16" s="18">
-        <v>6.8907005702098484E-2</v>
+        <v>6.3846695414180671E-2</v>
       </c>
       <c r="F16" s="18">
-        <v>1.5839587477383215E-2</v>
+        <v>2.2186643816343561E-2</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2669,19 +2669,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="18">
-        <v>0.4600372412340718</v>
+        <v>0.45936268927500312</v>
       </c>
       <c r="C17" s="18">
-        <v>-7.1172227450780792E-2</v>
+        <v>-6.4555461187825486E-2</v>
       </c>
       <c r="D17" s="18">
-        <v>1.1946667639658747E-4</v>
+        <v>1.3467084244283863E-2</v>
       </c>
       <c r="E17" s="18">
-        <v>3.1866693250040982E-2</v>
+        <v>3.3353913060182851E-2</v>
       </c>
       <c r="F17" s="18">
-        <v>0.20034470528101173</v>
+        <v>0.17657218026478655</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2689,19 +2689,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="18">
-        <v>0.21062379632111117</v>
+        <v>0.17191416544081647</v>
       </c>
       <c r="C18" s="18">
-        <v>-0.84958940864562094</v>
+        <v>-0.84093071986650203</v>
       </c>
       <c r="D18" s="18">
-        <v>0.76265972543075644</v>
+        <v>0.77375133204281177</v>
       </c>
       <c r="E18" s="18">
-        <v>0.75299424447077556</v>
+        <v>0.78408489378087065</v>
       </c>
       <c r="F18" s="18">
-        <v>-0.15367954081262672</v>
+        <v>-0.1216731917204531</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2709,19 +2709,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="18">
-        <v>6.5489975040622164E-2</v>
+        <v>7.1659524501462679E-2</v>
       </c>
       <c r="C19" s="18">
-        <v>0.77126042887825053</v>
+        <v>0.74227929741408949</v>
       </c>
       <c r="D19" s="18">
-        <v>5.484966109878478E-2</v>
+        <v>9.3222100599908403E-2</v>
       </c>
       <c r="E19" s="18">
-        <v>0.73178778809036094</v>
+        <v>0.71425757659643319</v>
       </c>
       <c r="F19" s="18">
-        <v>-8.0947144642083968E-3</v>
+        <v>-5.723388730524092E-3</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2729,19 +2729,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="18">
-        <v>0.48685613839499259</v>
+        <v>0.51827041663540774</v>
       </c>
       <c r="C20" s="18">
-        <v>-0.35250387960579854</v>
+        <v>-0.39687150285795109</v>
       </c>
       <c r="D20" s="18">
-        <v>4.7581701688902682E-2</v>
+        <v>6.0772128072007797E-2</v>
       </c>
       <c r="E20" s="18">
-        <v>8.1285377241105058E-2</v>
+        <v>7.1056700620974911E-2</v>
       </c>
       <c r="F20" s="18">
-        <v>0.16031782977047981</v>
+        <v>0.17069351600734281</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2749,19 +2749,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="18">
-        <v>0.48731285416425696</v>
+        <v>0.47987218846782903</v>
       </c>
       <c r="C21" s="18">
-        <v>-0.22606067028098265</v>
+        <v>-0.19578622723652894</v>
       </c>
       <c r="D21" s="18">
-        <v>0.21012914725050977</v>
+        <v>0.24846796186365755</v>
       </c>
       <c r="E21" s="18">
-        <v>0.13122778003917726</v>
+        <v>0.1354569716212177</v>
       </c>
       <c r="F21" s="18">
-        <v>-9.5814946327555425E-2</v>
+        <v>-9.6384593727426859E-2</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2769,19 +2769,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="18">
-        <v>0.26298248678877922</v>
+        <v>0.28379040627275542</v>
       </c>
       <c r="C22" s="18">
-        <v>0.19164777078258191</v>
+        <v>0.20260805630412096</v>
       </c>
       <c r="D22" s="18">
-        <v>7.9333129617599127E-3</v>
+        <v>-3.0533774820205434E-2</v>
       </c>
       <c r="E22" s="18">
-        <v>0.95013740012715608</v>
+        <v>0.99590570628380903</v>
       </c>
       <c r="F22" s="18">
-        <v>-1.9610640278183322E-2</v>
+        <v>-4.5101799882746221E-2</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2789,19 +2789,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="18">
-        <v>0.4865876618440354</v>
+        <v>0.47017034282264786</v>
       </c>
       <c r="C23" s="18">
-        <v>0.53465337090760079</v>
+        <v>0.55817406650894752</v>
       </c>
       <c r="D23" s="18">
-        <v>2.5836669212064973E-2</v>
+        <v>6.8932439871373111E-2</v>
       </c>
       <c r="E23" s="18">
-        <v>1.0000081049348197</v>
+        <v>1.0067080900000211</v>
       </c>
       <c r="F23" s="18">
-        <v>-0.33969590125654103</v>
+        <v>-0.37133401351050044</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2809,19 +2809,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="18">
-        <v>-1.3083385434564034E-2</v>
+        <v>-5.7235966042849876E-2</v>
       </c>
       <c r="C24" s="18">
-        <v>-0.33137824630644347</v>
+        <v>-0.32480114363762136</v>
       </c>
       <c r="D24" s="18">
-        <v>6.6229563953477594E-2</v>
+        <v>1.343745692411516E-2</v>
       </c>
       <c r="E24" s="18">
-        <v>0.52862833117950114</v>
+        <v>0.54908930564925085</v>
       </c>
       <c r="F24" s="18">
-        <v>0.36025207601285175</v>
+        <v>0.38956031180760076</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2829,19 +2829,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="18">
-        <v>-3.9555161544425864E-2</v>
+        <v>-3.9937774709678728E-2</v>
       </c>
       <c r="C25" s="18">
-        <v>9.1987256096635522E-2</v>
+        <v>0.10383072700064422</v>
       </c>
       <c r="D25" s="18">
-        <v>1.0592913354547855E-2</v>
+        <v>8.4395377244687632E-3</v>
       </c>
       <c r="E25" s="18">
-        <v>0.56588355255098743</v>
+        <v>0.54700252898456658</v>
       </c>
       <c r="F25" s="18">
-        <v>5.1841301399990436E-2</v>
+        <v>8.4673265566171219E-2</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2849,19 +2849,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="18">
-        <v>0.31589620255045964</v>
+        <v>0.3485507046155189</v>
       </c>
       <c r="C26" s="18">
-        <v>1.7107924109881691</v>
+        <v>1.6581550886539793</v>
       </c>
       <c r="D26" s="18">
-        <v>0.36803154348258071</v>
+        <v>0.35894635333593383</v>
       </c>
       <c r="E26" s="18">
-        <v>0.26595177156846672</v>
+        <v>0.22759708779112459</v>
       </c>
       <c r="F26" s="18">
-        <v>0.18035445493027807</v>
+        <v>0.16289743563064904</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2869,19 +2869,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="18">
-        <v>0.53954188426072502</v>
+        <v>0.54296418252264222</v>
       </c>
       <c r="C27" s="18">
-        <v>-0.87666393110094953</v>
+        <v>-0.916325542844456</v>
       </c>
       <c r="D27" s="18">
-        <v>4.9668440460082133E-2</v>
+        <v>7.8004232711909538E-2</v>
       </c>
       <c r="E27" s="18">
-        <v>7.9000453368034268E-2</v>
+        <v>5.867860544727907E-2</v>
       </c>
       <c r="F27" s="18">
-        <v>0.28997635460823862</v>
+        <v>0.31496263924908452</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2889,19 +2889,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="18">
-        <v>0.24982866296248715</v>
+        <v>0.27968547779779446</v>
       </c>
       <c r="C28" s="18">
-        <v>-4.4381797770162275E-2</v>
+        <v>-6.4648179488610624E-2</v>
       </c>
       <c r="D28" s="18">
-        <v>2.6363219950782748E-2</v>
+        <v>-2.0262652847222742E-2</v>
       </c>
       <c r="E28" s="18">
-        <v>0.13148997627856118</v>
+        <v>0.15084129450542255</v>
       </c>
       <c r="F28" s="18">
-        <v>-0.22045799712014269</v>
+        <v>-0.26347229690351442</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2909,19 +2909,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="18">
-        <v>0.23642042444548114</v>
+        <v>0.23017542405337485</v>
       </c>
       <c r="C29" s="18">
-        <v>-0.26360251477037711</v>
+        <v>-0.26569715489079759</v>
       </c>
       <c r="D29" s="18">
-        <v>2.6473911568925042E-2</v>
+        <v>4.5299180425788302E-2</v>
       </c>
       <c r="E29" s="18">
-        <v>0.65799715750739662</v>
+        <v>0.61641335847065482</v>
       </c>
       <c r="F29" s="18">
-        <v>9.9692130282706085E-2</v>
+        <v>0.13231222786487568</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2929,19 +2929,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="18">
-        <v>0.52653476698201507</v>
+        <v>0.49925351934373724</v>
       </c>
       <c r="C30" s="18">
-        <v>-4.233411319374053E-2</v>
+        <v>-3.8761860743544443E-2</v>
       </c>
       <c r="D30" s="18">
-        <v>-4.7801967203106484E-2</v>
+        <v>-5.8991790120424686E-3</v>
       </c>
       <c r="E30" s="18">
-        <v>-0.10545260607181658</v>
+        <v>-6.9862715445921153E-2</v>
       </c>
       <c r="F30" s="18">
-        <v>0.62560989141006795</v>
+        <v>0.65996377263906392</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2949,19 +2949,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="18">
-        <v>0.31570918309773349</v>
+        <v>0.31948110122642298</v>
       </c>
       <c r="C31" s="18">
-        <v>0.15810556322012498</v>
+        <v>0.11525197522602362</v>
       </c>
       <c r="D31" s="18">
-        <v>3.6560468543835295E-2</v>
+        <v>6.6345777506669146E-2</v>
       </c>
       <c r="E31" s="18">
-        <v>4.1181846464276389E-2</v>
+        <v>1.684505028320505E-2</v>
       </c>
       <c r="F31" s="18">
-        <v>0.10283316357555079</v>
+        <v>5.0851858810619377E-2</v>
       </c>
     </row>
   </sheetData>
